--- a/Win32/Binaries/Table/playerexp.xlsx
+++ b/Win32/Binaries/Table/playerexp.xlsx
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -588,13 +588,12 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3">
-        <f>(INT(A3/10)+1)*5</f>
         <v>5</v>
       </c>
     </row>
@@ -603,13 +602,12 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>35</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="0">(INT(A4/10)+1)*5</f>
         <v>5</v>
       </c>
     </row>
@@ -618,13 +616,12 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -633,13 +630,12 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>45</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -648,13 +644,12 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -663,14 +658,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C8">
         <v>55</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -678,14 +672,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="C9">
         <v>60</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -693,14 +686,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>168</v>
+        <v>500</v>
       </c>
       <c r="C10">
         <v>65</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -708,14 +700,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>354</v>
+        <v>600</v>
       </c>
       <c r="C11">
         <v>70</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -723,14 +714,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>403</v>
+        <v>700</v>
       </c>
       <c r="C12">
         <v>75</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -738,14 +728,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>453</v>
+        <v>800</v>
       </c>
       <c r="C13">
         <v>80</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -753,14 +742,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>505</v>
+        <v>900</v>
       </c>
       <c r="C14">
         <v>85</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -768,14 +756,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="C15">
         <v>90</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -783,14 +770,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>616</v>
+        <v>1200</v>
       </c>
       <c r="C16">
         <v>95</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -798,14 +784,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>673</v>
+        <v>1600</v>
       </c>
       <c r="C17">
         <v>100</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -813,14 +798,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>779</v>
+        <v>2000</v>
       </c>
       <c r="C18">
         <v>105</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -828,14 +812,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>957</v>
+        <v>2500</v>
       </c>
       <c r="C19">
         <v>110</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -843,14 +826,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="C20">
         <v>115</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -858,14 +840,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1429</v>
+        <v>3000</v>
       </c>
       <c r="C21">
         <v>120</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -873,14 +854,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2053</v>
+        <v>3100</v>
       </c>
       <c r="C22">
         <v>125</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -888,14 +868,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2612</v>
+        <v>3200</v>
       </c>
       <c r="C23">
         <v>130</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -903,14 +882,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5266</v>
+        <v>3500</v>
       </c>
       <c r="C24">
         <v>135</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -918,14 +896,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6086</v>
+        <v>3800</v>
       </c>
       <c r="C25">
         <v>140</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -933,14 +910,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6670</v>
+        <v>4200</v>
       </c>
       <c r="C26">
         <v>145</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -948,14 +924,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6976</v>
+        <v>4500</v>
       </c>
       <c r="C27">
         <v>150</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -963,14 +938,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="C28">
         <v>155</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -978,14 +952,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="C29">
         <v>160</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -993,14 +966,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9612</v>
+        <v>8000</v>
       </c>
       <c r="C30">
         <v>165</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -1008,14 +980,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>14266</v>
+        <v>10000</v>
       </c>
       <c r="C31">
         <v>170</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -1023,14 +994,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>18500</v>
+        <v>11000</v>
       </c>
       <c r="C32">
         <v>175</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -1038,14 +1008,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>20832</v>
+        <v>12000</v>
       </c>
       <c r="C33">
         <v>180</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -1053,14 +1022,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>21499</v>
+        <v>14000</v>
       </c>
       <c r="C34">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -1068,14 +1036,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>22166</v>
+        <v>16000</v>
       </c>
       <c r="C35">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -1083,14 +1050,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>22832</v>
+        <v>18000</v>
       </c>
       <c r="C36">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -1098,14 +1064,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>23499</v>
+        <v>20000</v>
       </c>
       <c r="C37">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -1113,14 +1078,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>24166</v>
+        <v>24832</v>
       </c>
       <c r="C38">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -1128,14 +1092,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>24832</v>
+        <v>25499</v>
       </c>
       <c r="C39">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -1143,14 +1106,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>25499</v>
+        <v>26166</v>
       </c>
       <c r="C40">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -1158,14 +1120,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>26166</v>
+        <v>26832</v>
       </c>
       <c r="C41">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -1173,14 +1134,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>26832</v>
+        <v>29166</v>
       </c>
       <c r="C42">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -1188,14 +1148,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>29166</v>
+        <v>39976</v>
       </c>
       <c r="C43">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -1203,14 +1162,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>39976</v>
+        <v>40868</v>
       </c>
       <c r="C44">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -1218,14 +1176,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>40868</v>
+        <v>41762</v>
       </c>
       <c r="C45">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -1233,14 +1190,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>41762</v>
+        <v>42656</v>
       </c>
       <c r="C46">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -1248,14 +1204,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>42656</v>
+        <v>51998</v>
       </c>
       <c r="C47">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -1263,14 +1218,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>51998</v>
+        <v>53065</v>
       </c>
       <c r="C48">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -1278,14 +1232,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>53065</v>
+        <v>54132</v>
       </c>
       <c r="C49">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -1293,14 +1246,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>54132</v>
+        <v>55198</v>
       </c>
       <c r="C50">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -1308,14 +1260,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>55198</v>
+        <v>56265</v>
       </c>
       <c r="C51">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -1323,14 +1274,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>56265</v>
+        <v>60000</v>
       </c>
       <c r="C52">
-        <v>275</v>
+        <v>180</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -1338,14 +1288,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>60000</v>
+        <v>76332</v>
       </c>
       <c r="C53">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -1353,14 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>76332</v>
+        <v>77666</v>
       </c>
       <c r="C54">
-        <v>285</v>
+        <v>180</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -1368,14 +1316,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>77666</v>
+        <v>79000</v>
       </c>
       <c r="C55">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -1383,14 +1330,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>79000</v>
+        <v>80332</v>
       </c>
       <c r="C56">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -1398,14 +1344,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>80332</v>
+        <v>102082</v>
       </c>
       <c r="C57">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -1413,14 +1358,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>102082</v>
+        <v>103750</v>
       </c>
       <c r="C58">
-        <v>305</v>
+        <v>180</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -1428,14 +1372,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>103750</v>
+        <v>105415</v>
       </c>
       <c r="C59">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -1443,14 +1386,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>105415</v>
+        <v>107082</v>
       </c>
       <c r="C60">
-        <v>315</v>
+        <v>180</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -1458,14 +1400,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>107082</v>
+        <v>145290</v>
       </c>
       <c r="C61">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -1473,14 +1414,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>145290</v>
+        <v>153080</v>
       </c>
       <c r="C62">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -1488,14 +1428,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>153080</v>
+        <v>155308</v>
       </c>
       <c r="C63">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -1503,14 +1442,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>155308</v>
+        <v>157536</v>
       </c>
       <c r="C64">
-        <v>335</v>
+        <v>180</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -1518,14 +1456,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>157536</v>
+        <v>191330</v>
       </c>
       <c r="C65">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
@@ -1533,14 +1470,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>191330</v>
+        <v>193998</v>
       </c>
       <c r="C66">
-        <v>345</v>
+        <v>180</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -1548,14 +1484,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>193998</v>
+        <v>294999</v>
       </c>
       <c r="C67">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="D67">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -1563,14 +1498,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>294999</v>
+        <v>298995</v>
       </c>
       <c r="C68">
-        <v>355</v>
+        <v>180</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D82" si="1">(INT(A68/10)+1)*5</f>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -1578,14 +1512,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>298995</v>
+        <v>302997</v>
       </c>
       <c r="C69">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1593,14 +1526,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>302997</v>
+        <v>409332</v>
       </c>
       <c r="C70">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -1608,14 +1540,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>409332</v>
+        <v>518325</v>
       </c>
       <c r="C71">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
@@ -1623,14 +1554,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>518325</v>
+        <v>649992</v>
       </c>
       <c r="C72">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
@@ -1638,14 +1568,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>649992</v>
+        <v>767662</v>
       </c>
       <c r="C73">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
@@ -1653,14 +1582,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>767662</v>
+        <v>776986</v>
       </c>
       <c r="C74">
-        <v>385</v>
+        <v>180</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
@@ -1668,14 +1596,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>776986</v>
+        <v>786324</v>
       </c>
       <c r="C75">
-        <v>390</v>
+        <v>180</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -1683,14 +1610,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>786324</v>
+        <v>909328</v>
       </c>
       <c r="C76">
-        <v>395</v>
+        <v>180</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -1698,14 +1624,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>909328</v>
+        <v>1034982</v>
       </c>
       <c r="C77">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -1713,14 +1638,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1034982</v>
+        <v>1163320</v>
       </c>
       <c r="C78">
-        <v>405</v>
+        <v>180</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -1728,14 +1652,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1163320</v>
+        <v>1294326</v>
       </c>
       <c r="C79">
-        <v>410</v>
+        <v>180</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -1743,14 +1666,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1294326</v>
+        <v>1427976</v>
       </c>
       <c r="C80">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -1758,14 +1680,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1427976</v>
+        <v>3008300</v>
       </c>
       <c r="C81">
-        <v>420</v>
+        <v>180</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
@@ -1776,11 +1697,10 @@
         <v>3008300</v>
       </c>
       <c r="C82">
-        <v>425</v>
+        <v>180</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
